--- a/SCORE_MATRIX.xlsx
+++ b/SCORE_MATRIX.xlsx
@@ -788,37 +788,37 @@
         <v>71.14999999999999</v>
       </c>
       <c r="B20" t="n">
+        <v>71.14999999999999</v>
+      </c>
+      <c r="C20" t="n">
         <v>49.97499999999999</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
+        <v>49.97499999999999</v>
+      </c>
+      <c r="E20" t="n">
         <v>71.85</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
+        <v>71.85</v>
+      </c>
+      <c r="G20" t="n">
         <v>65.725</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
+        <v>65.725</v>
+      </c>
+      <c r="I20" t="n">
         <v>72.27499999999998</v>
       </c>
-      <c r="F20" t="n">
+      <c r="J20" t="n">
+        <v>72.27499999999998</v>
+      </c>
+      <c r="K20" t="n">
         <v>70.10000000000001</v>
       </c>
-      <c r="G20" t="n">
-        <v>70.85</v>
-      </c>
-      <c r="H20" t="n">
-        <v>74.20000000000002</v>
-      </c>
-      <c r="I20" t="n">
-        <v>74.57499999999999</v>
-      </c>
-      <c r="J20" t="n">
-        <v>67.1875</v>
-      </c>
-      <c r="K20" t="n">
-        <v>81.35000000000002</v>
-      </c>
       <c r="L20" t="n">
-        <v>86.70000000000002</v>
+        <v>70.10000000000001</v>
       </c>
     </row>
     <row r="21">

--- a/SCORE_MATRIX.xlsx
+++ b/SCORE_MATRIX.xlsx
@@ -63,1142 +63,1142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>89.60600000000001</v>
+        <v>83.06000000000012</v>
       </c>
       <c r="B1" t="n">
-        <v>94.62900000000006</v>
+        <v>40.0</v>
       </c>
       <c r="C1" t="n">
-        <v>85.34400000000005</v>
+        <v>95.58799999999992</v>
       </c>
       <c r="D1" t="n">
-        <v>84.8429999999999</v>
+        <v>92.56799999999998</v>
       </c>
       <c r="E1" t="n">
-        <v>99.27999999999997</v>
+        <v>92.57499999999993</v>
       </c>
       <c r="F1" t="n">
-        <v>82.04899999999995</v>
+        <v>86.22199999999992</v>
       </c>
       <c r="G1" t="n">
-        <v>59.04335714285713</v>
+        <v>87.76700000000005</v>
       </c>
       <c r="H1" t="n">
-        <v>91.02200000000012</v>
+        <v>0.0</v>
       </c>
       <c r="I1" t="n">
-        <v>79.96200000000002</v>
+        <v>40.0</v>
       </c>
       <c r="J1" t="n">
-        <v>74.9900000000001</v>
+        <v>75.77300000000008</v>
       </c>
       <c r="K1" t="n">
-        <v>80.94100000000012</v>
+        <v>75.76299999999989</v>
       </c>
       <c r="L1" t="n">
-        <v>92.32900000000002</v>
+        <v>92.36400000000002</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>83.83728400000001</v>
+        <v>89.79956800000001</v>
       </c>
       <c r="B2" t="n">
-        <v>87.504388</v>
+        <v>100.0</v>
       </c>
       <c r="C2" t="n">
-        <v>83.45434</v>
+        <v>76.93501599999999</v>
       </c>
       <c r="D2" t="n">
-        <v>86.027296</v>
+        <v>70.81578400000001</v>
       </c>
       <c r="E2" t="n">
-        <v>89.271328</v>
+        <v>69.81396000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>96.981484</v>
+        <v>78.09236800000001</v>
       </c>
       <c r="G2" t="n">
-        <v>90.78237999999999</v>
+        <v>60.50316000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>83.941684</v>
+        <v>76.3609</v>
       </c>
       <c r="I2" t="n">
-        <v>82.726252</v>
+        <v>100.0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.57806000000001</v>
+        <v>77.160736</v>
       </c>
       <c r="K2" t="n">
-        <v>80.802352</v>
+        <v>80.68900000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>73.7704</v>
+        <v>86.92823200000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88.14469</v>
+        <v>92.56528</v>
       </c>
       <c r="B3" t="n">
-        <v>89.225965</v>
+        <v>100.0</v>
       </c>
       <c r="C3" t="n">
-        <v>84.561295</v>
+        <v>78.42126999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>86.45773</v>
+        <v>77.397415</v>
       </c>
       <c r="E3" t="n">
-        <v>91.391845</v>
+        <v>76.42860999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>96.184705</v>
+        <v>81.164605</v>
       </c>
       <c r="G3" t="n">
-        <v>92.03677</v>
+        <v>72.30868</v>
       </c>
       <c r="H3" t="n">
-        <v>83.10377499999998</v>
+        <v>78.84343</v>
       </c>
       <c r="I3" t="n">
-        <v>86.587975</v>
+        <v>100.0</v>
       </c>
       <c r="J3" t="n">
-        <v>87.535945</v>
+        <v>82.893655</v>
       </c>
       <c r="K3" t="n">
-        <v>87.488815</v>
+        <v>82.32186999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>76.83721</v>
+        <v>87.687985</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91.8999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="B4" t="n">
-        <v>93.1000000000001</v>
+        <v>40.0</v>
       </c>
       <c r="C4" t="n">
-        <v>92.95000000000002</v>
+        <v>92.5</v>
       </c>
       <c r="D4" t="n">
-        <v>92.95000000000002</v>
+        <v>92.5</v>
       </c>
       <c r="E4" t="n">
+        <v>92.79999999999994</v>
+      </c>
+      <c r="F4" t="n">
+        <v>93.40000000000003</v>
+      </c>
+      <c r="G4" t="n">
+        <v>93.40000000000003</v>
+      </c>
+      <c r="H4" t="n">
+        <v>94.75000000000009</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="J4" t="n">
         <v>92.5</v>
       </c>
-      <c r="F4" t="n">
-        <v>92.95000000000002</v>
-      </c>
-      <c r="G4" t="n">
-        <v>93.85000000000005</v>
-      </c>
-      <c r="H4" t="n">
-        <v>93.85000000000005</v>
-      </c>
-      <c r="I4" t="n">
-        <v>94.60000000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>94.60000000000001</v>
-      </c>
       <c r="K4" t="n">
-        <v>75.82273</v>
+        <v>93.5499999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>40.0</v>
+        <v>93.24999999999996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80.83</v>
+        <v>81.39999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>81.72999999999999</v>
+        <v>40.0</v>
       </c>
       <c r="C5" t="n">
-        <v>81.67</v>
+        <v>81.49</v>
       </c>
       <c r="D5" t="n">
-        <v>81.70000000000002</v>
+        <v>81.34</v>
       </c>
       <c r="E5" t="n">
-        <v>81.61000000000001</v>
+        <v>81.52000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>81.72999999999999</v>
+        <v>81.12999999999998</v>
       </c>
       <c r="G5" t="n">
-        <v>81.79000000000002</v>
+        <v>81.52000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>81.79000000000002</v>
+        <v>83.04999999999998</v>
       </c>
       <c r="I5" t="n">
-        <v>81.82</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
-        <v>81.85000000000001</v>
+        <v>94.62999999999998</v>
       </c>
       <c r="K5" t="n">
-        <v>78.39454599999999</v>
+        <v>95.26</v>
       </c>
       <c r="L5" t="n">
-        <v>45.81999999999999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>77.5</v>
+        <v>81.89999999999998</v>
       </c>
       <c r="B6" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="C6" t="n">
-        <v>75.69999999999993</v>
+        <v>78.9</v>
       </c>
       <c r="D6" t="n">
-        <v>79.00000000000006</v>
+        <v>80.49999999999997</v>
       </c>
       <c r="E6" t="n">
-        <v>80.09090999999998</v>
+        <v>80.79999999999998</v>
       </c>
       <c r="F6" t="n">
-        <v>80.10000000000005</v>
+        <v>75.49999999999997</v>
       </c>
       <c r="G6" t="n">
+        <v>80.19999999999996</v>
+      </c>
+      <c r="H6" t="n">
+        <v>80.79999999999998</v>
+      </c>
+      <c r="I6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>80.90000000000003</v>
+      </c>
+      <c r="K6" t="n">
+        <v>81.59999999999997</v>
+      </c>
+      <c r="L6" t="n">
         <v>78.29999999999998</v>
-      </c>
-      <c r="H6" t="n">
-        <v>79.00000000000006</v>
-      </c>
-      <c r="I6" t="n">
-        <v>82.90000000000006</v>
-      </c>
-      <c r="J6" t="n">
-        <v>85.40000000000006</v>
-      </c>
-      <c r="K6" t="n">
-        <v>85.19999999999996</v>
-      </c>
-      <c r="L6" t="n">
-        <v>82.90000000000006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80.98461538461535</v>
+        <v>81.72307692307703</v>
       </c>
       <c r="B7" t="n">
-        <v>97.73846153846148</v>
+        <v>100.0</v>
       </c>
       <c r="C7" t="n">
-        <v>92.2</v>
+        <v>73.69230769230774</v>
       </c>
       <c r="D7" t="n">
-        <v>85.94615384615378</v>
+        <v>74.8461538461539</v>
       </c>
       <c r="E7" t="n">
-        <v>79.60576923076928</v>
+        <v>74.49423076923074</v>
       </c>
       <c r="F7" t="n">
-        <v>79.58269230769238</v>
+        <v>72.948076923077</v>
       </c>
       <c r="G7" t="n">
-        <v>80.80576923076924</v>
+        <v>79.075</v>
       </c>
       <c r="H7" t="n">
-        <v>80.26923076923089</v>
+        <v>79.075</v>
       </c>
       <c r="I7" t="n">
-        <v>79.95769230769244</v>
+        <v>100.0</v>
       </c>
       <c r="J7" t="n">
-        <v>80.46538461538455</v>
+        <v>79.73846153846159</v>
       </c>
       <c r="K7" t="n">
-        <v>81.37692307692296</v>
+        <v>80.0211538461538</v>
       </c>
       <c r="L7" t="n">
-        <v>79.10384615384628</v>
+        <v>75.87307692307684</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>77.23999999999978</v>
+        <v>86.03999999999996</v>
       </c>
       <c r="B8" t="n">
-        <v>77.89999999999964</v>
+        <v>100.0</v>
       </c>
       <c r="C8" t="n">
-        <v>78.35999999999967</v>
+        <v>79.53999999999996</v>
       </c>
       <c r="D8" t="n">
-        <v>77.88000000000011</v>
+        <v>77.69999999999982</v>
       </c>
       <c r="E8" t="n">
-        <v>75.52000000000044</v>
+        <v>75.97999999999956</v>
       </c>
       <c r="F8" t="n">
-        <v>77.11999999999989</v>
+        <v>68.7057142857141</v>
       </c>
       <c r="G8" t="n">
-        <v>89.46000000000004</v>
+        <v>83.35999999999967</v>
       </c>
       <c r="H8" t="n">
-        <v>91.61999999999989</v>
+        <v>94.23999999999978</v>
       </c>
       <c r="I8" t="n">
-        <v>84.39999999999964</v>
+        <v>100.0</v>
       </c>
       <c r="J8" t="n">
-        <v>89.72000000000025</v>
+        <v>89.76000000000022</v>
       </c>
       <c r="K8" t="n">
-        <v>98.14000000000033</v>
+        <v>92.52000000000044</v>
       </c>
       <c r="L8" t="n">
-        <v>88.03999999999996</v>
+        <v>85.02000000000044</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77.5</v>
+        <v>85.0</v>
       </c>
       <c r="B9" t="n">
-        <v>85.0</v>
+        <v>100.0</v>
       </c>
       <c r="C9" t="n">
+        <v>79.375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75.625</v>
+      </c>
+      <c r="E9" t="n">
         <v>81.25</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>83.125</v>
       </c>
-      <c r="E9" t="n">
-        <v>83.125</v>
-      </c>
-      <c r="F9" t="n">
-        <v>85.0</v>
-      </c>
       <c r="G9" t="n">
-        <v>77.5</v>
+        <v>81.25</v>
       </c>
       <c r="H9" t="n">
-        <v>83.125</v>
+        <v>88.75</v>
       </c>
       <c r="I9" t="n">
-        <v>79.375</v>
+        <v>100.0</v>
       </c>
       <c r="J9" t="n">
-        <v>79.375</v>
+        <v>86.875</v>
       </c>
       <c r="K9" t="n">
-        <v>81.25</v>
+        <v>92.5</v>
       </c>
       <c r="L9" t="n">
-        <v>81.25</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>76.44000000000051</v>
+        <v>81.75</v>
       </c>
       <c r="B10" t="n">
-        <v>79.45999999999913</v>
+        <v>100.0</v>
       </c>
       <c r="C10" t="n">
-        <v>76.22999999999956</v>
+        <v>71.69000000000051</v>
       </c>
       <c r="D10" t="n">
-        <v>83.70999999999913</v>
+        <v>71.42000000000007</v>
       </c>
       <c r="E10" t="n">
-        <v>77.67000000000007</v>
+        <v>74.04000000000087</v>
       </c>
       <c r="F10" t="n">
-        <v>97.19000000000051</v>
+        <v>54.4300000000012</v>
       </c>
       <c r="G10" t="n">
-        <v>86.76000000000022</v>
+        <v>81.92000000000007</v>
       </c>
       <c r="H10" t="n">
-        <v>80.13999999999942</v>
+        <v>94.88999999999942</v>
       </c>
       <c r="I10" t="n">
-        <v>85.40999999999985</v>
+        <v>100.0</v>
       </c>
       <c r="J10" t="n">
-        <v>82.96999999999935</v>
+        <v>95.04999999999927</v>
       </c>
       <c r="K10" t="n">
-        <v>91.82999999999993</v>
+        <v>94.44000000000051</v>
       </c>
       <c r="L10" t="n">
-        <v>88.26000000000022</v>
+        <v>83.84000000000015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76.71999999999998</v>
+        <v>79.24</v>
       </c>
       <c r="B11" t="n">
-        <v>85.36000000000001</v>
+        <v>100.0</v>
       </c>
       <c r="C11" t="n">
-        <v>78.87999999999998</v>
+        <v>83.44000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>78.16</v>
+        <v>79.47999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>75.16</v>
+        <v>78.52000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>78.63999999999999</v>
+        <v>77.68</v>
       </c>
       <c r="G11" t="n">
-        <v>79.24</v>
+        <v>76.24</v>
       </c>
       <c r="H11" t="n">
-        <v>78.87999999999998</v>
+        <v>73.72000000000003</v>
       </c>
       <c r="I11" t="n">
-        <v>79.24</v>
+        <v>100.0</v>
       </c>
       <c r="J11" t="n">
-        <v>78.39999999999999</v>
+        <v>74.79999999999998</v>
       </c>
       <c r="K11" t="n">
-        <v>73.0</v>
+        <v>72.63999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>74.32</v>
+        <v>96.76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>82.0</v>
+        <v>100.0</v>
       </c>
       <c r="B12" t="n">
-        <v>88.0</v>
+        <v>100.0</v>
       </c>
       <c r="C12" t="n">
-        <v>94.0</v>
+        <v>61.42857142857143</v>
       </c>
       <c r="D12" t="n">
         <v>88.0</v>
       </c>
       <c r="E12" t="n">
-        <v>70.0</v>
+        <v>82.0</v>
       </c>
       <c r="F12" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="J12" t="n">
         <v>76.0</v>
       </c>
-      <c r="G12" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="L12" t="n">
         <v>82.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>100.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>94.89999999999995</v>
+        <v>76.75000000000004</v>
       </c>
       <c r="B13" t="n">
-        <v>100.0</v>
+        <v>40.0</v>
       </c>
       <c r="C13" t="n">
-        <v>90.10000000000005</v>
+        <v>78.99999999999991</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0</v>
+        <v>92.5</v>
       </c>
       <c r="E13" t="n">
-        <v>88.29999999999998</v>
+        <v>100.0</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0</v>
+        <v>94.14999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>100.0</v>
+        <v>88.75</v>
       </c>
       <c r="H13" t="n">
-        <v>100.0</v>
+        <v>52.99999999999997</v>
       </c>
       <c r="I13" t="n">
-        <v>85.90000000000003</v>
+        <v>40.0</v>
       </c>
       <c r="J13" t="n">
-        <v>94.75000000000009</v>
+        <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>100.0</v>
+        <v>74.3500000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>100.0</v>
+        <v>87.10000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>89.5</v>
+        <v>95.5</v>
       </c>
       <c r="B14" t="n">
-        <v>89.5</v>
+        <v>100.0</v>
       </c>
       <c r="C14" t="n">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
       <c r="D14" t="n">
-        <v>91.0</v>
+        <v>98.5</v>
       </c>
       <c r="E14" t="n">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
       <c r="F14" t="n">
-        <v>91.0</v>
+        <v>95.5</v>
       </c>
       <c r="G14" t="n">
-        <v>92.49999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="H14" t="n">
-        <v>92.49999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="I14" t="n">
-        <v>92.49999999999999</v>
+        <v>100.0</v>
       </c>
       <c r="J14" t="n">
-        <v>92.49999999999999</v>
+        <v>96.99999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>92.49999999999999</v>
+        <v>96.99999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>94.0</v>
+        <v>96.99999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C15" t="n">
         <v>74.5</v>
       </c>
-      <c r="B15" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>80.5</v>
-      </c>
       <c r="D15" t="n">
-        <v>77.49999999999999</v>
+        <v>85.0</v>
       </c>
       <c r="E15" t="n">
         <v>86.5</v>
       </c>
       <c r="F15" t="n">
-        <v>88.0</v>
+        <v>85.0</v>
       </c>
       <c r="G15" t="n">
-        <v>89.50000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="H15" t="n">
         <v>85.0</v>
       </c>
       <c r="I15" t="n">
-        <v>85.0</v>
+        <v>100.0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.0</v>
+        <v>91.0</v>
       </c>
       <c r="K15" t="n">
-        <v>85.0</v>
+        <v>95.50000000000003</v>
       </c>
       <c r="L15" t="n">
-        <v>85.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>91.17142857142856</v>
+        <v>58.95000000000003</v>
       </c>
       <c r="B16" t="n">
-        <v>86.92857142857144</v>
+        <v>40.0</v>
       </c>
       <c r="C16" t="n">
-        <v>85.94285714285714</v>
+        <v>64.45</v>
       </c>
       <c r="D16" t="n">
-        <v>92.97142857142858</v>
+        <v>88.08571428571427</v>
       </c>
       <c r="E16" t="n">
-        <v>66.4</v>
+        <v>88.98571428571431</v>
       </c>
       <c r="F16" t="n">
-        <v>71.6285714285714</v>
+        <v>92.02857142857142</v>
       </c>
       <c r="G16" t="n">
-        <v>73.08571428571427</v>
+        <v>90.4857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>88.00000000000001</v>
+        <v>86.67142857142858</v>
       </c>
       <c r="I16" t="n">
-        <v>81.05714285714285</v>
+        <v>40.0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.52857142857141</v>
+        <v>92.8857142857143</v>
       </c>
       <c r="K16" t="n">
-        <v>80.24285714285715</v>
+        <v>88.55714285714285</v>
       </c>
       <c r="L16" t="n">
-        <v>86.2</v>
+        <v>87.82857142857141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>82.47999999999999</v>
+        <v>60.969999999999985</v>
       </c>
       <c r="B17" t="n">
-        <v>74.39500000000001</v>
+        <v>40.0</v>
       </c>
       <c r="C17" t="n">
-        <v>85.23999999999998</v>
+        <v>65.13999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>63.610000000000014</v>
+        <v>73.14999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>84.94</v>
+        <v>74.44</v>
       </c>
       <c r="F17" t="n">
-        <v>82.75</v>
+        <v>72.055</v>
       </c>
       <c r="G17" t="n">
-        <v>79.285</v>
+        <v>76.315</v>
       </c>
       <c r="H17" t="n">
-        <v>73.255</v>
+        <v>88.82499999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>71.935</v>
+        <v>40.0</v>
       </c>
       <c r="J17" t="n">
-        <v>74.125</v>
+        <v>79.465</v>
       </c>
       <c r="K17" t="n">
-        <v>63.87999999999998</v>
+        <v>73.0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.04999999999998</v>
+        <v>71.27499999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>82.44999999999999</v>
+        <v>73.15</v>
       </c>
       <c r="B18" t="n">
-        <v>80.80000000000001</v>
+        <v>100.0</v>
       </c>
       <c r="C18" t="n">
-        <v>83.5</v>
+        <v>79.0</v>
       </c>
       <c r="D18" t="n">
-        <v>85.0</v>
+        <v>85.29999999999998</v>
       </c>
       <c r="E18" t="n">
-        <v>69.77499999999999</v>
+        <v>86.5</v>
       </c>
       <c r="F18" t="n">
-        <v>69.85</v>
+        <v>83.20000000000002</v>
       </c>
       <c r="G18" t="n">
-        <v>68.35000000000001</v>
+        <v>66.625</v>
       </c>
       <c r="H18" t="n">
-        <v>72.10000000000001</v>
+        <v>84.25</v>
       </c>
       <c r="I18" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.35</v>
+        <v>87.55000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>75.39999999999999</v>
+        <v>51.55</v>
       </c>
       <c r="L18" t="n">
-        <v>80.35</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>83.32</v>
+        <v>81.97982200000004</v>
       </c>
       <c r="B19" t="n">
-        <v>80.02000000000001</v>
+        <v>40.0</v>
       </c>
       <c r="C19" t="n">
-        <v>81.70000000000002</v>
+        <v>81.93351999999996</v>
       </c>
       <c r="D19" t="n">
-        <v>80.5</v>
+        <v>84.18935199999999</v>
       </c>
       <c r="E19" t="n">
-        <v>81.22000000000003</v>
+        <v>86.07299799999998</v>
       </c>
       <c r="F19" t="n">
-        <v>81.22000000000003</v>
+        <v>85.39238200000003</v>
       </c>
       <c r="G19" t="n">
-        <v>79.72000000000003</v>
+        <v>84.38762799999998</v>
       </c>
       <c r="H19" t="n">
-        <v>81.04000000000002</v>
+        <v>83.96721400000004</v>
       </c>
       <c r="I19" t="n">
-        <v>81.45999999999998</v>
+        <v>40.0</v>
       </c>
       <c r="J19" t="n">
-        <v>80.86000000000001</v>
+        <v>83.81534199999996</v>
       </c>
       <c r="K19" t="n">
-        <v>82.18</v>
+        <v>85.42105000000004</v>
       </c>
       <c r="L19" t="n">
-        <v>82.84</v>
+        <v>84.96236800000003</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>71.14999999999999</v>
+        <v>85.97500000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>71.14999999999999</v>
+        <v>85.97500000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>49.97499999999999</v>
+        <v>40.0</v>
       </c>
       <c r="D20" t="n">
-        <v>49.97499999999999</v>
+        <v>40.0</v>
       </c>
       <c r="E20" t="n">
-        <v>71.85</v>
+        <v>82.67499999999998</v>
       </c>
       <c r="F20" t="n">
-        <v>71.85</v>
+        <v>82.67499999999998</v>
       </c>
       <c r="G20" t="n">
-        <v>65.725</v>
+        <v>90.025</v>
       </c>
       <c r="H20" t="n">
-        <v>65.725</v>
+        <v>90.025</v>
       </c>
       <c r="I20" t="n">
-        <v>72.27499999999998</v>
+        <v>94.17500000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>72.27499999999998</v>
+        <v>94.17500000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>70.10000000000001</v>
+        <v>87.575</v>
       </c>
       <c r="L20" t="n">
-        <v>70.10000000000001</v>
+        <v>87.575</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>84.25</v>
+        <v>84.85</v>
       </c>
       <c r="B21" t="n">
-        <v>40.4</v>
+        <v>100.0</v>
       </c>
       <c r="C21" t="n">
-        <v>64.0</v>
+        <v>55.7</v>
       </c>
       <c r="D21" t="n">
-        <v>78.25</v>
+        <v>79.6</v>
       </c>
       <c r="E21" t="n">
-        <v>89.35</v>
+        <v>85.75</v>
       </c>
       <c r="F21" t="n">
-        <v>77.35</v>
+        <v>79.0</v>
       </c>
       <c r="G21" t="n">
-        <v>80.19999999999999</v>
+        <v>74.05</v>
       </c>
       <c r="H21" t="n">
-        <v>80.35</v>
+        <v>83.35</v>
       </c>
       <c r="I21" t="n">
-        <v>88.15</v>
+        <v>100.0</v>
       </c>
       <c r="J21" t="n">
-        <v>83.80000000000001</v>
+        <v>96.25</v>
       </c>
       <c r="K21" t="n">
-        <v>65.2</v>
+        <v>68.4</v>
       </c>
       <c r="L21" t="n">
-        <v>40.0</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>67.63157894736842</v>
+        <v>77.57894736842105</v>
       </c>
       <c r="B22" t="n">
-        <v>45.921052631578945</v>
+        <v>100.0</v>
       </c>
       <c r="C22" t="n">
-        <v>59.57894736842104</v>
+        <v>84.52631578947368</v>
       </c>
       <c r="D22" t="n">
-        <v>60.76315789473684</v>
+        <v>85.78947368421052</v>
       </c>
       <c r="E22" t="n">
-        <v>69.13157894736842</v>
+        <v>95.26315789473685</v>
       </c>
       <c r="F22" t="n">
-        <v>66.68421052631578</v>
+        <v>90.5263157894737</v>
       </c>
       <c r="G22" t="n">
-        <v>67.31578947368422</v>
+        <v>98.73684210526316</v>
       </c>
       <c r="H22" t="n">
-        <v>66.05263157894736</v>
+        <v>77.89473684210526</v>
       </c>
       <c r="I22" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="J22" t="n">
         <v>73.78947368421053</v>
       </c>
-      <c r="J22" t="n">
-        <v>82.31578947368422</v>
-      </c>
       <c r="K22" t="n">
-        <v>68.6578947368421</v>
+        <v>68.18421052631578</v>
       </c>
       <c r="L22" t="n">
-        <v>67.86842105263158</v>
+        <v>44.02631578947367</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>78.55</v>
+        <v>79.6</v>
       </c>
       <c r="B23" t="n">
-        <v>44.87500000000001</v>
+        <v>100.0</v>
       </c>
       <c r="C23" t="n">
-        <v>63.0625</v>
+        <v>58.46875</v>
       </c>
       <c r="D23" t="n">
-        <v>72.4</v>
+        <v>74.65</v>
       </c>
       <c r="E23" t="n">
-        <v>81.25</v>
+        <v>80.35</v>
       </c>
       <c r="F23" t="n">
-        <v>72.7</v>
+        <v>74.2</v>
       </c>
       <c r="G23" t="n">
-        <v>78.55</v>
+        <v>74.35</v>
       </c>
       <c r="H23" t="n">
-        <v>77.35</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>82.9</v>
+        <v>100.0</v>
       </c>
       <c r="J23" t="n">
-        <v>80.35</v>
+        <v>90.4</v>
       </c>
       <c r="K23" t="n">
-        <v>68.03125</v>
+        <v>79.45</v>
       </c>
       <c r="L23" t="n">
-        <v>70.9</v>
+        <v>67.84375</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>89.60600000000001</v>
+        <v>83.06000000000012</v>
       </c>
       <c r="B24" t="n">
-        <v>94.62900000000006</v>
+        <v>40.0</v>
       </c>
       <c r="C24" t="n">
-        <v>85.34400000000005</v>
+        <v>95.58799999999992</v>
       </c>
       <c r="D24" t="n">
-        <v>84.8429999999999</v>
+        <v>92.56799999999998</v>
       </c>
       <c r="E24" t="n">
-        <v>99.27999999999997</v>
+        <v>92.57499999999993</v>
       </c>
       <c r="F24" t="n">
-        <v>82.04899999999995</v>
+        <v>86.22199999999992</v>
       </c>
       <c r="G24" t="n">
-        <v>59.04335714285713</v>
+        <v>87.76700000000005</v>
       </c>
       <c r="H24" t="n">
-        <v>91.02200000000012</v>
+        <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>79.96200000000002</v>
+        <v>40.0</v>
       </c>
       <c r="J24" t="n">
-        <v>74.9900000000001</v>
+        <v>75.77300000000008</v>
       </c>
       <c r="K24" t="n">
-        <v>80.94100000000012</v>
+        <v>75.76299999999989</v>
       </c>
       <c r="L24" t="n">
-        <v>92.32900000000002</v>
+        <v>92.36400000000002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>85.70707093599997</v>
+        <v>87.855794272</v>
       </c>
       <c r="B25" t="n">
-        <v>87.25794251200003</v>
+        <v>59.8</v>
       </c>
       <c r="C25" t="n">
-        <v>85.77081808000001</v>
+        <v>83.469965824</v>
       </c>
       <c r="D25" t="n">
-        <v>86.53904670400001</v>
+        <v>82.087790536</v>
       </c>
       <c r="E25" t="n">
-        <v>87.671848552</v>
+        <v>81.9180392</v>
       </c>
       <c r="F25" t="n">
-        <v>89.99818777600001</v>
+        <v>84.201865672</v>
       </c>
       <c r="G25" t="n">
-        <v>88.52196244000002</v>
+        <v>79.73023352000001</v>
       </c>
       <c r="H25" t="n">
-        <v>85.97998009600002</v>
+        <v>84.66682108000003</v>
       </c>
       <c r="I25" t="n">
-        <v>86.452697488</v>
+        <v>59.8</v>
       </c>
       <c r="J25" t="n">
-        <v>86.17603216</v>
+        <v>89.01007986399998</v>
       </c>
       <c r="K25" t="n">
-        <v>79.33207978000002</v>
+        <v>90.16406031999998</v>
       </c>
       <c r="L25" t="n">
-        <v>53.72635816</v>
+        <v>56.578142967999995</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>77.51698461538464</v>
+        <v>82.81732307692306</v>
       </c>
       <c r="B26" t="n">
-        <v>82.55333846153826</v>
+        <v>100.0</v>
       </c>
       <c r="C26" t="n">
-        <v>79.74262499999986</v>
+        <v>78.24947980769238</v>
       </c>
       <c r="D26" t="n">
-        <v>80.98175865384604</v>
+        <v>76.76650865384613</v>
       </c>
       <c r="E26" t="n">
-        <v>78.60094569423086</v>
+        <v>77.8950192307693</v>
       </c>
       <c r="F26" t="n">
-        <v>82.92908269230776</v>
+        <v>72.71106771978037</v>
       </c>
       <c r="G26" t="n">
-        <v>81.9335057692308</v>
+        <v>80.46319999999994</v>
       </c>
       <c r="H26" t="n">
-        <v>82.50023173076914</v>
+        <v>85.73959999999987</v>
       </c>
       <c r="I26" t="n">
-        <v>81.86804519230762</v>
+        <v>100.0</v>
       </c>
       <c r="J26" t="n">
-        <v>82.79910288461534</v>
+        <v>84.81257596153841</v>
       </c>
       <c r="K26" t="n">
-        <v>85.24575192307695</v>
+        <v>86.19287115384628</v>
       </c>
       <c r="L26" t="n">
-        <v>82.43097884615389</v>
+        <v>81.61382307692315</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>84.9844</v>
+        <v>91.02100000000002</v>
       </c>
       <c r="B27" t="n">
-        <v>89.644</v>
+        <v>85.84</v>
       </c>
       <c r="C27" t="n">
-        <v>89.86960000000002</v>
+        <v>74.26085714285713</v>
       </c>
       <c r="D27" t="n">
-        <v>89.338</v>
+        <v>90.44799999999998</v>
       </c>
       <c r="E27" t="n">
-        <v>81.5008</v>
+        <v>89.38600000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>86.83600000000001</v>
+        <v>87.99339999999998</v>
       </c>
       <c r="G27" t="n">
-        <v>87.412</v>
+        <v>86.989</v>
       </c>
       <c r="H27" t="n">
-        <v>86.53</v>
+        <v>81.12599999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>85.48240000000001</v>
+        <v>85.84</v>
       </c>
       <c r="J27" t="n">
-        <v>90.43900000000001</v>
+        <v>88.552</v>
       </c>
       <c r="K27" t="n">
-        <v>88.80999999999999</v>
+        <v>90.22060000000003</v>
       </c>
       <c r="L27" t="n">
-        <v>95.932</v>
+        <v>77.79160000000002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>82.63258214285713</v>
+        <v>71.527681795</v>
       </c>
       <c r="B28" t="n">
-        <v>74.71488035714286</v>
+        <v>50.199999999999996</v>
       </c>
       <c r="C28" t="n">
-        <v>81.62153928571428</v>
+        <v>74.01029469999999</v>
       </c>
       <c r="D28" t="n">
-        <v>78.98784464285714</v>
+        <v>85.04677929142856</v>
       </c>
       <c r="E28" t="n">
-        <v>73.6817125</v>
+        <v>86.93478322642856</v>
       </c>
       <c r="F28" t="n">
-        <v>74.37209285714285</v>
+        <v>85.31841625214287</v>
       </c>
       <c r="G28" t="n">
-        <v>73.89967857142857</v>
+        <v>80.12280690142856</v>
       </c>
       <c r="H28" t="n">
-        <v>78.809425</v>
+        <v>84.74676405785713</v>
       </c>
       <c r="I28" t="n">
-        <v>76.9331232142857</v>
+        <v>50.199999999999996</v>
       </c>
       <c r="J28" t="n">
-        <v>75.41614910714286</v>
+        <v>83.39421256642856</v>
       </c>
       <c r="K28" t="n">
-        <v>77.45828928571429</v>
+        <v>76.46279183928571</v>
       </c>
       <c r="L28" t="n">
-        <v>78.66639999999998</v>
+        <v>80.44746383714285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>76.88989473684211</v>
+        <v>80.99583684210526</v>
       </c>
       <c r="B29" t="n">
-        <v>43.438913157894746</v>
+        <v>100.0</v>
       </c>
       <c r="C29" t="n">
-        <v>62.17511184210527</v>
+        <v>66.82959144736841</v>
       </c>
       <c r="D29" t="n">
-        <v>70.53928947368422</v>
+        <v>80.71446842105263</v>
       </c>
       <c r="E29" t="n">
-        <v>80.1274947368421</v>
+        <v>87.97078947368422</v>
       </c>
       <c r="F29" t="n">
-        <v>72.39815263157895</v>
+        <v>82.09157894736843</v>
       </c>
       <c r="G29" t="n">
-        <v>75.13064736842105</v>
+        <v>83.1050105263158</v>
       </c>
       <c r="H29" t="n">
-        <v>74.45575789473685</v>
+        <v>80.7777842105263</v>
       </c>
       <c r="I29" t="n">
-        <v>81.71526842105263</v>
+        <v>100.0</v>
       </c>
       <c r="J29" t="n">
-        <v>82.46624736842105</v>
+        <v>86.72886842105264</v>
       </c>
       <c r="K29" t="n">
-        <v>67.10986118421052</v>
+        <v>70.86295263157895</v>
       </c>
       <c r="L29" t="n">
-        <v>57.251105263157896</v>
+        <v>57.89784144736842</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>83.85699097680367</v>
+        <v>83.0214084358987</v>
       </c>
       <c r="B30" t="n">
-        <v>82.16301726029222</v>
+        <v>67.87719999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>82.25930074444435</v>
+        <v>80.94641087271964</v>
       </c>
       <c r="D30" t="n">
-        <v>82.81503470345766</v>
+        <v>85.4532425811358</v>
       </c>
       <c r="E30" t="n">
-        <v>85.08397255659767</v>
+        <v>86.48853068219341</v>
       </c>
       <c r="F30" t="n">
-        <v>82.10386958830102</v>
+        <v>83.43982080572387</v>
       </c>
       <c r="G30" t="n">
-        <v>76.34124711487415</v>
+        <v>83.34950015022952</v>
       </c>
       <c r="H30" t="n">
-        <v>84.40601971134669</v>
+        <v>63.15794978268072</v>
       </c>
       <c r="I30" t="n">
-        <v>81.95748045738777</v>
+        <v>67.87719999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>81.43561399790082</v>
+        <v>83.88848344500485</v>
       </c>
       <c r="K30" t="n">
-        <v>80.5694778691448</v>
+        <v>81.81428223215156</v>
       </c>
       <c r="L30" t="n">
-        <v>78.66090103114291</v>
+        <v>76.59091713332639</v>
       </c>
     </row>
   </sheetData>
